--- a/01 - DATASET/01- AUH Weather 2024 [CLEANED].xlsx
+++ b/01 - DATASET/01- AUH Weather 2024 [CLEANED].xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 ARTIFICIAL INTELLIGENCE\artificial-intelligence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 ARTIFICIAL INTELLIGENCE\SA2-blomikii\01 - DATASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22A3F19-93D8-460E-929D-A7EC141214C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE71AD6-97FB-445B-A505-B2D73E089BBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" xr2:uid="{22593D64-4D70-4623-BFD6-FA2482228C99}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="273">
   <si>
     <t>Abu Dhabi, AZ, AE</t>
   </si>
@@ -841,6 +841,9 @@
   </si>
   <si>
     <t>DATE TIME</t>
+  </si>
+  <si>
+    <t>SUNSHINE HOURS</t>
   </si>
 </sst>
 </file>
@@ -1295,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5886C9A7-C9D7-468D-93CA-1CBD15FE5B7C}">
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="77" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1311,14 +1314,14 @@
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.9140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.08203125" customWidth="1"/>
-    <col min="11" max="11" width="20.58203125" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.08203125" customWidth="1"/>
+    <col min="12" max="12" width="20.58203125" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="62.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="22" customHeight="1">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>259</v>
       </c>
@@ -1347,19 +1350,22 @@
         <v>268</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1">
+    <row r="2" spans="1:14" s="8" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1387,20 +1393,21 @@
       <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="7"/>
+      <c r="K2" s="4">
         <v>176.5</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>15.2</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="8" customFormat="1">
+    <row r="3" spans="1:14" s="8" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1428,20 +1435,21 @@
       <c r="I3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="7"/>
+      <c r="K3" s="4">
         <v>179.9</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>15.5</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1">
+    <row r="4" spans="1:14" s="8" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1469,20 +1477,21 @@
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="7"/>
+      <c r="K4" s="4">
         <v>177.7</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>15.3</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1">
+    <row r="5" spans="1:14" s="8" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1510,20 +1519,21 @@
       <c r="I5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="7"/>
+      <c r="K5" s="4">
         <v>162.6</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>14</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1">
+    <row r="6" spans="1:14" s="8" customFormat="1">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1551,20 +1561,21 @@
       <c r="I6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="7"/>
+      <c r="K6" s="4">
         <v>182.3</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>15.8</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1">
+    <row r="7" spans="1:14" s="8" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1592,20 +1603,21 @@
       <c r="I7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="7"/>
+      <c r="K7" s="4">
         <v>184</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>15.9</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1">
+    <row r="8" spans="1:14" s="8" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1633,20 +1645,21 @@
       <c r="I8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="7"/>
+      <c r="K8" s="4">
         <v>184.2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>15.9</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="8" customFormat="1">
+    <row r="9" spans="1:14" s="8" customFormat="1">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -1674,20 +1687,21 @@
       <c r="I9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="7"/>
+      <c r="K9" s="4">
         <v>184.5</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>15.9</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="8" customFormat="1">
+    <row r="10" spans="1:14" s="8" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -1715,20 +1729,21 @@
       <c r="I10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="7"/>
+      <c r="K10" s="4">
         <v>187.8</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>16.2</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="8" customFormat="1">
+    <row r="11" spans="1:14" s="8" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -1756,20 +1771,21 @@
       <c r="I11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="7"/>
+      <c r="K11" s="4">
         <v>187.7</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>16.100000000000001</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="8" customFormat="1">
+    <row r="12" spans="1:14" s="8" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -1797,20 +1813,21 @@
       <c r="I12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="7"/>
+      <c r="K12" s="4">
         <v>190.4</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>16.5</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="8" customFormat="1">
+    <row r="13" spans="1:14" s="8" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -1838,20 +1855,21 @@
       <c r="I13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="7"/>
+      <c r="K13" s="4">
         <v>187</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>16.2</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="8" customFormat="1">
+    <row r="14" spans="1:14" s="8" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
@@ -1879,20 +1897,21 @@
       <c r="I14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="7"/>
+      <c r="K14" s="4">
         <v>181.7</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>15.7</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="8" customFormat="1">
+    <row r="15" spans="1:14" s="8" customFormat="1">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -1920,20 +1939,21 @@
       <c r="I15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="7"/>
+      <c r="K15" s="4">
         <v>191.8</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>16.7</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="8" customFormat="1">
+    <row r="16" spans="1:14" s="8" customFormat="1">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -1961,20 +1981,21 @@
       <c r="I16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="7"/>
+      <c r="K16" s="4">
         <v>194.1</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>16.8</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="8" customFormat="1">
+    <row r="17" spans="1:14" s="8" customFormat="1">
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
@@ -2002,20 +2023,21 @@
       <c r="I17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="7"/>
+      <c r="K17" s="4">
         <v>189.5</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>16.5</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="8" customFormat="1">
+    <row r="18" spans="1:14" s="8" customFormat="1">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
@@ -2043,20 +2065,21 @@
       <c r="I18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="7"/>
+      <c r="K18" s="4">
         <v>188.1</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>16.100000000000001</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="8" customFormat="1">
+    <row r="19" spans="1:14" s="8" customFormat="1">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
@@ -2084,20 +2107,21 @@
       <c r="I19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="7"/>
+      <c r="K19" s="4">
         <v>189.8</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>16.5</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="M19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="8" customFormat="1">
+    <row r="20" spans="1:14" s="8" customFormat="1">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -2125,20 +2149,21 @@
       <c r="I20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="7"/>
+      <c r="K20" s="4">
         <v>184</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>15.9</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="8" customFormat="1">
+    <row r="21" spans="1:14" s="8" customFormat="1">
       <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
@@ -2166,20 +2191,21 @@
       <c r="I21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="7"/>
+      <c r="K21" s="4">
         <v>197.1</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>17</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="M21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="8" customFormat="1">
+    <row r="22" spans="1:14" s="8" customFormat="1">
       <c r="A22" s="4" t="s">
         <v>0</v>
       </c>
@@ -2207,20 +2233,21 @@
       <c r="I22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="7"/>
+      <c r="K22" s="4">
         <v>195.1</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>16.7</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="N22" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="8" customFormat="1">
+    <row r="23" spans="1:14" s="8" customFormat="1">
       <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
@@ -2248,20 +2275,21 @@
       <c r="I23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="7"/>
+      <c r="K23" s="4">
         <v>200.1</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="4">
         <v>17.2</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="8" customFormat="1">
+    <row r="24" spans="1:14" s="8" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>0</v>
       </c>
@@ -2289,20 +2317,21 @@
       <c r="I24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="7"/>
+      <c r="K24" s="4">
         <v>203.8</v>
       </c>
-      <c r="K24" s="4">
+      <c r="L24" s="4">
         <v>17.600000000000001</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="N24" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="8" customFormat="1">
+    <row r="25" spans="1:14" s="8" customFormat="1">
       <c r="A25" s="4" t="s">
         <v>0</v>
       </c>
@@ -2330,20 +2359,21 @@
       <c r="I25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="7"/>
+      <c r="K25" s="4">
         <v>206.9</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <v>17.8</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="8" customFormat="1">
+    <row r="26" spans="1:14" s="8" customFormat="1">
       <c r="A26" s="4" t="s">
         <v>0</v>
       </c>
@@ -2371,20 +2401,21 @@
       <c r="I26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="7"/>
+      <c r="K26" s="4">
         <v>156.19999999999999</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L26" s="4">
         <v>13.4</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="M26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="N26" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="8" customFormat="1">
+    <row r="27" spans="1:14" s="8" customFormat="1">
       <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
@@ -2412,20 +2443,21 @@
       <c r="I27" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="7"/>
+      <c r="K27" s="4">
         <v>176.9</v>
       </c>
-      <c r="K27" s="4">
+      <c r="L27" s="4">
         <v>15.2</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="M27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="N27" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="8" customFormat="1">
+    <row r="28" spans="1:14" s="8" customFormat="1">
       <c r="A28" s="4" t="s">
         <v>0</v>
       </c>
@@ -2453,20 +2485,21 @@
       <c r="I28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="7"/>
+      <c r="K28" s="4">
         <v>178.7</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
         <v>15.2</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="N28" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="8" customFormat="1">
+    <row r="29" spans="1:14" s="8" customFormat="1">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
@@ -2494,20 +2527,21 @@
       <c r="I29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="7"/>
+      <c r="K29" s="4">
         <v>199</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
         <v>17.2</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="N29" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="8" customFormat="1">
+    <row r="30" spans="1:14" s="8" customFormat="1">
       <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
@@ -2535,20 +2569,21 @@
       <c r="I30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="7"/>
+      <c r="K30" s="4">
         <v>189</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>16.5</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="M30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="N30" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="8" customFormat="1">
+    <row r="31" spans="1:14" s="8" customFormat="1">
       <c r="A31" s="4" t="s">
         <v>0</v>
       </c>
@@ -2576,20 +2611,21 @@
       <c r="I31" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="7"/>
+      <c r="K31" s="4">
         <v>137.5</v>
       </c>
-      <c r="K31" s="4">
+      <c r="L31" s="4">
         <v>11.9</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="N31" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="8" customFormat="1">
+    <row r="32" spans="1:14" s="8" customFormat="1">
       <c r="A32" s="4" t="s">
         <v>0</v>
       </c>
@@ -2617,20 +2653,21 @@
       <c r="I32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="7"/>
+      <c r="K32" s="4">
         <v>162.69999999999999</v>
       </c>
-      <c r="K32" s="4">
+      <c r="L32" s="4">
         <v>13.9</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="M32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="N32" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="8" customFormat="1">
+    <row r="33" spans="1:14" s="8" customFormat="1">
       <c r="A33" s="4" t="s">
         <v>0</v>
       </c>
@@ -2658,20 +2695,21 @@
       <c r="I33" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="7"/>
+      <c r="K33" s="4">
         <v>191.3</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="M33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="N33" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="8" customFormat="1">
+    <row r="34" spans="1:14" s="8" customFormat="1">
       <c r="A34" s="4" t="s">
         <v>0</v>
       </c>
@@ -2699,20 +2737,21 @@
       <c r="I34" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="7"/>
+      <c r="K34" s="4">
         <v>152</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>13.1</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="M34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="N34" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="11" customFormat="1">
+    <row r="35" spans="1:14" s="11" customFormat="1">
       <c r="A35" s="9" t="s">
         <v>0</v>
       </c>
@@ -2740,20 +2779,21 @@
       <c r="I35" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9">
         <v>42.3</v>
       </c>
-      <c r="K35" s="9">
+      <c r="L35" s="9">
         <v>3.6</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="M35" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="N35" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="8" customFormat="1">
+    <row r="36" spans="1:14" s="8" customFormat="1">
       <c r="A36" s="4" t="s">
         <v>0</v>
       </c>
@@ -2781,20 +2821,21 @@
       <c r="I36" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="7"/>
+      <c r="K36" s="4">
         <v>214.3</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
         <v>18.5</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="M36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="N36" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="8" customFormat="1">
+    <row r="37" spans="1:14" s="8" customFormat="1">
       <c r="A37" s="4" t="s">
         <v>0</v>
       </c>
@@ -2822,20 +2863,21 @@
       <c r="I37" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="7"/>
+      <c r="K37" s="4">
         <v>193.5</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="M37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="N37" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="8" customFormat="1">
+    <row r="38" spans="1:14" s="8" customFormat="1">
       <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
@@ -2863,20 +2905,21 @@
       <c r="I38" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="7"/>
+      <c r="K38" s="4">
         <v>197.4</v>
       </c>
-      <c r="K38" s="4">
+      <c r="L38" s="4">
         <v>17.2</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="M38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="N38" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="8" customFormat="1">
+    <row r="39" spans="1:14" s="8" customFormat="1">
       <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
@@ -2904,20 +2947,21 @@
       <c r="I39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="7"/>
+      <c r="K39" s="4">
         <v>194.5</v>
       </c>
-      <c r="K39" s="4">
+      <c r="L39" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="M39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="N39" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="8" customFormat="1">
+    <row r="40" spans="1:14" s="8" customFormat="1">
       <c r="A40" s="4" t="s">
         <v>0</v>
       </c>
@@ -2945,20 +2989,21 @@
       <c r="I40" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="7"/>
+      <c r="K40" s="4">
         <v>221.9</v>
       </c>
-      <c r="K40" s="4">
+      <c r="L40" s="4">
         <v>19.100000000000001</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="M40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="N40" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="8" customFormat="1">
+    <row r="41" spans="1:14" s="8" customFormat="1">
       <c r="A41" s="4" t="s">
         <v>0</v>
       </c>
@@ -2986,20 +3031,21 @@
       <c r="I41" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="7"/>
+      <c r="K41" s="4">
         <v>224.3</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <v>19.2</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="M41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="N41" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="8" customFormat="1">
+    <row r="42" spans="1:14" s="8" customFormat="1">
       <c r="A42" s="4" t="s">
         <v>0</v>
       </c>
@@ -3027,20 +3073,21 @@
       <c r="I42" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="7"/>
+      <c r="K42" s="4">
         <v>225.1</v>
       </c>
-      <c r="K42" s="4">
+      <c r="L42" s="4">
         <v>19.600000000000001</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="M42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="N42" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="11" customFormat="1">
+    <row r="43" spans="1:14" s="11" customFormat="1">
       <c r="A43" s="9" t="s">
         <v>0</v>
       </c>
@@ -3068,20 +3115,21 @@
       <c r="I43" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="9"/>
+      <c r="K43" s="9">
         <v>114.5</v>
       </c>
-      <c r="K43" s="9">
+      <c r="L43" s="9">
         <v>9.9</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="M43" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M43" s="9" t="s">
+      <c r="N43" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="8" customFormat="1">
+    <row r="44" spans="1:14" s="8" customFormat="1">
       <c r="A44" s="4" t="s">
         <v>0</v>
       </c>
@@ -3109,20 +3157,21 @@
       <c r="I44" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="7"/>
+      <c r="K44" s="4">
         <v>163.69999999999999</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>14.2</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="M44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="N44" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="8" customFormat="1">
+    <row r="45" spans="1:14" s="8" customFormat="1">
       <c r="A45" s="4" t="s">
         <v>0</v>
       </c>
@@ -3150,20 +3199,21 @@
       <c r="I45" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="7"/>
+      <c r="K45" s="4">
         <v>223</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>19.3</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="M45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="N45" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="8" customFormat="1">
+    <row r="46" spans="1:14" s="8" customFormat="1">
       <c r="A46" s="4" t="s">
         <v>0</v>
       </c>
@@ -3191,20 +3241,21 @@
       <c r="I46" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="7"/>
+      <c r="K46" s="4">
         <v>228.2</v>
       </c>
-      <c r="K46" s="4">
+      <c r="L46" s="4">
         <v>19.8</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="M46" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="N46" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="8" customFormat="1">
+    <row r="47" spans="1:14" s="8" customFormat="1">
       <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
@@ -3232,20 +3283,21 @@
       <c r="I47" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="7"/>
+      <c r="K47" s="4">
         <v>218.4</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>18.8</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="M47" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="N47" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="8" customFormat="1">
+    <row r="48" spans="1:14" s="8" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>0</v>
       </c>
@@ -3273,20 +3325,21 @@
       <c r="I48" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="7"/>
+      <c r="K48" s="4">
         <v>214.9</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <v>18.7</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="M48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="N48" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="8" customFormat="1">
+    <row r="49" spans="1:14" s="8" customFormat="1">
       <c r="A49" s="4" t="s">
         <v>0</v>
       </c>
@@ -3314,20 +3367,21 @@
       <c r="I49" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="7"/>
+      <c r="K49" s="4">
         <v>221.9</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>19.100000000000001</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="M49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="N49" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="8" customFormat="1">
+    <row r="50" spans="1:14" s="8" customFormat="1">
       <c r="A50" s="4" t="s">
         <v>0</v>
       </c>
@@ -3355,20 +3409,21 @@
       <c r="I50" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="7"/>
+      <c r="K50" s="4">
         <v>230.8</v>
       </c>
-      <c r="K50" s="4">
+      <c r="L50" s="4">
         <v>20</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="M50" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="N50" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="8" customFormat="1">
+    <row r="51" spans="1:14" s="8" customFormat="1">
       <c r="A51" s="4" t="s">
         <v>0</v>
       </c>
@@ -3396,20 +3451,21 @@
       <c r="I51" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="7"/>
+      <c r="K51" s="4">
         <v>243.5</v>
       </c>
-      <c r="K51" s="4">
+      <c r="L51" s="4">
         <v>21.1</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="M51" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M51" s="4" t="s">
+      <c r="N51" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="8" customFormat="1">
+    <row r="52" spans="1:14" s="8" customFormat="1">
       <c r="A52" s="4" t="s">
         <v>0</v>
       </c>
@@ -3437,20 +3493,21 @@
       <c r="I52" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="7"/>
+      <c r="K52" s="4">
         <v>237.8</v>
       </c>
-      <c r="K52" s="4">
+      <c r="L52" s="4">
         <v>20.5</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="M52" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M52" s="4" t="s">
+      <c r="N52" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="8" customFormat="1">
+    <row r="53" spans="1:14" s="8" customFormat="1">
       <c r="A53" s="4" t="s">
         <v>0</v>
       </c>
@@ -3478,20 +3535,21 @@
       <c r="I53" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="7"/>
+      <c r="K53" s="4">
         <v>246.3</v>
       </c>
-      <c r="K53" s="4">
+      <c r="L53" s="4">
         <v>21.3</v>
       </c>
-      <c r="L53" s="4" t="s">
+      <c r="M53" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="N53" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="8" customFormat="1">
+    <row r="54" spans="1:14" s="8" customFormat="1">
       <c r="A54" s="4" t="s">
         <v>0</v>
       </c>
@@ -3519,20 +3577,21 @@
       <c r="I54" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="7"/>
+      <c r="K54" s="4">
         <v>246.5</v>
       </c>
-      <c r="K54" s="4">
+      <c r="L54" s="4">
         <v>21.3</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="M54" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="N54" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="8" customFormat="1">
+    <row r="55" spans="1:14" s="8" customFormat="1">
       <c r="A55" s="4" t="s">
         <v>0</v>
       </c>
@@ -3560,20 +3619,21 @@
       <c r="I55" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="7"/>
+      <c r="K55" s="4">
         <v>243.6</v>
       </c>
-      <c r="K55" s="4">
+      <c r="L55" s="4">
         <v>21.2</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="M55" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="N55" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="8" customFormat="1">
+    <row r="56" spans="1:14" s="8" customFormat="1">
       <c r="A56" s="4" t="s">
         <v>0</v>
       </c>
@@ -3601,20 +3661,21 @@
       <c r="I56" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="7"/>
+      <c r="K56" s="4">
         <v>241.8</v>
       </c>
-      <c r="K56" s="4">
+      <c r="L56" s="4">
         <v>21</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="M56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M56" s="4" t="s">
+      <c r="N56" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="8" customFormat="1">
+    <row r="57" spans="1:14" s="8" customFormat="1">
       <c r="A57" s="4" t="s">
         <v>0</v>
       </c>
@@ -3642,20 +3703,21 @@
       <c r="I57" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="7"/>
+      <c r="K57" s="4">
         <v>149</v>
       </c>
-      <c r="K57" s="4">
+      <c r="L57" s="4">
         <v>12.9</v>
       </c>
-      <c r="L57" s="4" t="s">
+      <c r="M57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M57" s="4" t="s">
+      <c r="N57" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="8" customFormat="1">
+    <row r="58" spans="1:14" s="8" customFormat="1">
       <c r="A58" s="4" t="s">
         <v>0</v>
       </c>
@@ -3683,20 +3745,21 @@
       <c r="I58" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="7"/>
+      <c r="K58" s="4">
         <v>247</v>
       </c>
-      <c r="K58" s="4">
+      <c r="L58" s="4">
         <v>21.3</v>
       </c>
-      <c r="L58" s="4" t="s">
+      <c r="M58" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M58" s="4" t="s">
+      <c r="N58" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="8" customFormat="1">
+    <row r="59" spans="1:14" s="8" customFormat="1">
       <c r="A59" s="4" t="s">
         <v>0</v>
       </c>
@@ -3724,20 +3787,21 @@
       <c r="I59" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59" s="7"/>
+      <c r="K59" s="4">
         <v>255.4</v>
       </c>
-      <c r="K59" s="4">
+      <c r="L59" s="4">
         <v>22</v>
       </c>
-      <c r="L59" s="4" t="s">
+      <c r="M59" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M59" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="8" customFormat="1">
+      <c r="N59" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="8" customFormat="1">
       <c r="A60" s="4" t="s">
         <v>0</v>
       </c>
@@ -3765,20 +3829,21 @@
       <c r="I60" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J60" s="7"/>
+      <c r="K60" s="4">
         <v>220.3</v>
       </c>
-      <c r="K60" s="4">
+      <c r="L60" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="L60" s="4" t="s">
+      <c r="M60" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M60" s="4" t="s">
+      <c r="N60" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="8" customFormat="1">
+    <row r="61" spans="1:14" s="8" customFormat="1">
       <c r="A61" s="4" t="s">
         <v>0</v>
       </c>
@@ -3806,20 +3871,21 @@
       <c r="I61" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61" s="7"/>
+      <c r="K61" s="4">
         <v>246.4</v>
       </c>
-      <c r="K61" s="4">
+      <c r="L61" s="4">
         <v>21.3</v>
       </c>
-      <c r="L61" s="4" t="s">
+      <c r="M61" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M61" s="4" t="s">
+      <c r="N61" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="8" customFormat="1">
+    <row r="62" spans="1:14" s="8" customFormat="1">
       <c r="A62" s="4" t="s">
         <v>0</v>
       </c>
@@ -3847,20 +3913,21 @@
       <c r="I62" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62" s="7"/>
+      <c r="K62" s="4">
         <v>261</v>
       </c>
-      <c r="K62" s="4">
+      <c r="L62" s="4">
         <v>22.5</v>
       </c>
-      <c r="L62" s="4" t="s">
+      <c r="M62" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M62" s="4" t="s">
+      <c r="N62" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="8" customFormat="1">
+    <row r="63" spans="1:14" s="8" customFormat="1">
       <c r="A63" s="4" t="s">
         <v>0</v>
       </c>
@@ -3888,20 +3955,21 @@
       <c r="I63" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J63" s="7"/>
+      <c r="K63" s="4">
         <v>241</v>
       </c>
-      <c r="K63" s="4">
+      <c r="L63" s="4">
         <v>20.9</v>
       </c>
-      <c r="L63" s="4" t="s">
+      <c r="M63" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M63" s="4" t="s">
+      <c r="N63" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="8" customFormat="1">
+    <row r="64" spans="1:14" s="8" customFormat="1">
       <c r="A64" s="4" t="s">
         <v>0</v>
       </c>
@@ -3929,20 +3997,21 @@
       <c r="I64" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J64" s="4">
+      <c r="J64" s="7"/>
+      <c r="K64" s="4">
         <v>263.8</v>
       </c>
-      <c r="K64" s="4">
+      <c r="L64" s="4">
         <v>22.8</v>
       </c>
-      <c r="L64" s="4" t="s">
+      <c r="M64" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M64" s="4" t="s">
+      <c r="N64" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="8" customFormat="1">
+    <row r="65" spans="1:14" s="8" customFormat="1">
       <c r="A65" s="4" t="s">
         <v>0</v>
       </c>
@@ -3970,20 +4039,21 @@
       <c r="I65" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J65" s="7"/>
+      <c r="K65" s="4">
         <v>235.3</v>
       </c>
-      <c r="K65" s="4">
+      <c r="L65" s="4">
         <v>20.399999999999999</v>
       </c>
-      <c r="L65" s="4" t="s">
+      <c r="M65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M65" s="4" t="s">
+      <c r="N65" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="8" customFormat="1">
+    <row r="66" spans="1:14" s="8" customFormat="1">
       <c r="A66" s="4" t="s">
         <v>0</v>
       </c>
@@ -4011,20 +4081,21 @@
       <c r="I66" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J66" s="4">
+      <c r="J66" s="7"/>
+      <c r="K66" s="4">
         <v>231.8</v>
       </c>
-      <c r="K66" s="4">
+      <c r="L66" s="4">
         <v>19.899999999999999</v>
       </c>
-      <c r="L66" s="4" t="s">
+      <c r="M66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M66" s="4" t="s">
+      <c r="N66" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="8" customFormat="1">
+    <row r="67" spans="1:14" s="8" customFormat="1">
       <c r="A67" s="4" t="s">
         <v>0</v>
       </c>
@@ -4052,20 +4123,21 @@
       <c r="I67" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J67" s="7"/>
+      <c r="K67" s="4">
         <v>261.8</v>
       </c>
-      <c r="K67" s="4">
+      <c r="L67" s="4">
         <v>22.7</v>
       </c>
-      <c r="L67" s="4" t="s">
+      <c r="M67" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M67" s="4" t="s">
+      <c r="N67" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="8" customFormat="1">
+    <row r="68" spans="1:14" s="8" customFormat="1">
       <c r="A68" s="4" t="s">
         <v>0</v>
       </c>
@@ -4093,20 +4165,21 @@
       <c r="I68" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J68" s="7"/>
+      <c r="K68" s="4">
         <v>219.9</v>
       </c>
-      <c r="K68" s="4">
+      <c r="L68" s="4">
         <v>19.100000000000001</v>
       </c>
-      <c r="L68" s="4" t="s">
+      <c r="M68" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M68" s="4" t="s">
+      <c r="N68" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="8" customFormat="1">
+    <row r="69" spans="1:14" s="8" customFormat="1">
       <c r="A69" s="4" t="s">
         <v>0</v>
       </c>
@@ -4134,20 +4207,21 @@
       <c r="I69" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J69" s="7"/>
+      <c r="K69" s="4">
         <v>219</v>
       </c>
-      <c r="K69" s="4">
+      <c r="L69" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="L69" s="4" t="s">
+      <c r="M69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M69" s="4" t="s">
+      <c r="N69" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="8" customFormat="1">
+    <row r="70" spans="1:14" s="8" customFormat="1">
       <c r="A70" s="4" t="s">
         <v>0</v>
       </c>
@@ -4175,20 +4249,21 @@
       <c r="I70" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J70" s="7"/>
+      <c r="K70" s="4">
         <v>187.4</v>
       </c>
-      <c r="K70" s="4">
+      <c r="L70" s="4">
         <v>16.2</v>
       </c>
-      <c r="L70" s="4" t="s">
+      <c r="M70" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M70" s="4" t="s">
+      <c r="N70" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="8" customFormat="1">
+    <row r="71" spans="1:14" s="8" customFormat="1">
       <c r="A71" s="4" t="s">
         <v>0</v>
       </c>
@@ -4216,20 +4291,21 @@
       <c r="I71" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J71" s="7"/>
+      <c r="K71" s="4">
         <v>269</v>
       </c>
-      <c r="K71" s="4">
+      <c r="L71" s="4">
         <v>23.2</v>
       </c>
-      <c r="L71" s="4" t="s">
+      <c r="M71" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M71" s="4" t="s">
+      <c r="N71" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="8" customFormat="1">
+    <row r="72" spans="1:14" s="8" customFormat="1">
       <c r="A72" s="4" t="s">
         <v>0</v>
       </c>
@@ -4257,20 +4333,21 @@
       <c r="I72" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="J72" s="4">
+      <c r="J72" s="7"/>
+      <c r="K72" s="4">
         <v>274.2</v>
       </c>
-      <c r="K72" s="4">
+      <c r="L72" s="4">
         <v>23.7</v>
       </c>
-      <c r="L72" s="4" t="s">
+      <c r="M72" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M72" s="4" t="s">
+      <c r="N72" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="8" customFormat="1">
+    <row r="73" spans="1:14" s="8" customFormat="1">
       <c r="A73" s="4" t="s">
         <v>0</v>
       </c>
@@ -4298,20 +4375,21 @@
       <c r="I73" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J73" s="7"/>
+      <c r="K73" s="4">
         <v>279.5</v>
       </c>
-      <c r="K73" s="4">
+      <c r="L73" s="4">
         <v>24.1</v>
       </c>
-      <c r="L73" s="4" t="s">
+      <c r="M73" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M73" s="4" t="s">
+      <c r="N73" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="8" customFormat="1">
+    <row r="74" spans="1:14" s="8" customFormat="1">
       <c r="A74" s="4" t="s">
         <v>0</v>
       </c>
@@ -4339,20 +4417,21 @@
       <c r="I74" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="J74" s="4">
+      <c r="J74" s="7"/>
+      <c r="K74" s="4">
         <v>278.5</v>
       </c>
-      <c r="K74" s="4">
+      <c r="L74" s="4">
         <v>24</v>
       </c>
-      <c r="L74" s="4" t="s">
+      <c r="M74" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M74" s="4" t="s">
+      <c r="N74" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="8" customFormat="1">
+    <row r="75" spans="1:14" s="8" customFormat="1">
       <c r="A75" s="4" t="s">
         <v>0</v>
       </c>
@@ -4380,20 +4459,21 @@
       <c r="I75" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J75" s="7"/>
+      <c r="K75" s="4">
         <v>271.39999999999998</v>
       </c>
-      <c r="K75" s="4">
+      <c r="L75" s="4">
         <v>23.3</v>
       </c>
-      <c r="L75" s="4" t="s">
+      <c r="M75" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M75" s="4" t="s">
+      <c r="N75" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="8" customFormat="1">
+    <row r="76" spans="1:14" s="8" customFormat="1">
       <c r="A76" s="4" t="s">
         <v>0</v>
       </c>
@@ -4421,20 +4501,21 @@
       <c r="I76" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J76" s="4">
+      <c r="J76" s="7"/>
+      <c r="K76" s="4">
         <v>270.7</v>
       </c>
-      <c r="K76" s="4">
+      <c r="L76" s="4">
         <v>23.3</v>
       </c>
-      <c r="L76" s="4" t="s">
+      <c r="M76" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M76" s="4" t="s">
+      <c r="N76" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="8" customFormat="1">
+    <row r="77" spans="1:14" s="8" customFormat="1">
       <c r="A77" s="4" t="s">
         <v>0</v>
       </c>
@@ -4462,20 +4543,21 @@
       <c r="I77" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J77" s="7"/>
+      <c r="K77" s="4">
         <v>267</v>
       </c>
-      <c r="K77" s="4">
+      <c r="L77" s="4">
         <v>23.2</v>
       </c>
-      <c r="L77" s="4" t="s">
+      <c r="M77" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M77" s="4" t="s">
+      <c r="N77" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="8" customFormat="1">
+    <row r="78" spans="1:14" s="8" customFormat="1">
       <c r="A78" s="4" t="s">
         <v>0</v>
       </c>
@@ -4503,20 +4585,21 @@
       <c r="I78" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="J78" s="4">
+      <c r="J78" s="7"/>
+      <c r="K78" s="4">
         <v>270.10000000000002</v>
       </c>
-      <c r="K78" s="4">
+      <c r="L78" s="4">
         <v>23.5</v>
       </c>
-      <c r="L78" s="4" t="s">
+      <c r="M78" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M78" s="4" t="s">
+      <c r="N78" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="8" customFormat="1">
+    <row r="79" spans="1:14" s="8" customFormat="1">
       <c r="A79" s="4" t="s">
         <v>0</v>
       </c>
@@ -4544,20 +4627,21 @@
       <c r="I79" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J79" s="7"/>
+      <c r="K79" s="4">
         <v>277.8</v>
       </c>
-      <c r="K79" s="4">
+      <c r="L79" s="4">
         <v>24</v>
       </c>
-      <c r="L79" s="4" t="s">
+      <c r="M79" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M79" s="4" t="s">
+      <c r="N79" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="8" customFormat="1">
+    <row r="80" spans="1:14" s="8" customFormat="1">
       <c r="A80" s="4" t="s">
         <v>0</v>
       </c>
@@ -4585,20 +4669,21 @@
       <c r="I80" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="J80" s="4">
+      <c r="J80" s="7"/>
+      <c r="K80" s="4">
         <v>214.1</v>
       </c>
-      <c r="K80" s="4">
+      <c r="L80" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="L80" s="4" t="s">
+      <c r="M80" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M80" s="4" t="s">
+      <c r="N80" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="8" customFormat="1">
+    <row r="81" spans="1:14" s="8" customFormat="1">
       <c r="A81" s="4" t="s">
         <v>0</v>
       </c>
@@ -4626,20 +4711,21 @@
       <c r="I81" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J81" s="7"/>
+      <c r="K81" s="4">
         <v>180.1</v>
       </c>
-      <c r="K81" s="4">
+      <c r="L81" s="4">
         <v>15.6</v>
       </c>
-      <c r="L81" s="4" t="s">
+      <c r="M81" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M81" s="4" t="s">
+      <c r="N81" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="8" customFormat="1">
+    <row r="82" spans="1:14" s="8" customFormat="1">
       <c r="A82" s="4" t="s">
         <v>0</v>
       </c>
@@ -4667,20 +4753,21 @@
       <c r="I82" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="J82" s="4">
+      <c r="J82" s="7"/>
+      <c r="K82" s="4">
         <v>280.89999999999998</v>
       </c>
-      <c r="K82" s="4">
+      <c r="L82" s="4">
         <v>24.1</v>
       </c>
-      <c r="L82" s="4" t="s">
+      <c r="M82" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M82" s="4" t="s">
+      <c r="N82" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="8" customFormat="1">
+    <row r="83" spans="1:14" s="8" customFormat="1">
       <c r="A83" s="4" t="s">
         <v>0</v>
       </c>
@@ -4708,20 +4795,21 @@
       <c r="I83" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J83" s="7"/>
+      <c r="K83" s="4">
         <v>264.7</v>
       </c>
-      <c r="K83" s="4">
+      <c r="L83" s="4">
         <v>22.9</v>
       </c>
-      <c r="L83" s="4" t="s">
+      <c r="M83" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M83" s="4" t="s">
+      <c r="N83" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="8" customFormat="1">
+    <row r="84" spans="1:14" s="8" customFormat="1">
       <c r="A84" s="4" t="s">
         <v>0</v>
       </c>
@@ -4749,20 +4837,21 @@
       <c r="I84" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="J84" s="4">
+      <c r="J84" s="7"/>
+      <c r="K84" s="4">
         <v>197.9</v>
       </c>
-      <c r="K84" s="4">
+      <c r="L84" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="L84" s="4" t="s">
+      <c r="M84" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M84" s="4" t="s">
+      <c r="N84" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="8" customFormat="1">
+    <row r="85" spans="1:14" s="8" customFormat="1">
       <c r="A85" s="4" t="s">
         <v>0</v>
       </c>
@@ -4790,20 +4879,21 @@
       <c r="I85" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J85" s="7"/>
+      <c r="K85" s="4">
         <v>196.5</v>
       </c>
-      <c r="K85" s="4">
+      <c r="L85" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="L85" s="4" t="s">
+      <c r="M85" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M85" s="4" t="s">
+      <c r="N85" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="8" customFormat="1">
+    <row r="86" spans="1:14" s="8" customFormat="1">
       <c r="A86" s="4" t="s">
         <v>0</v>
       </c>
@@ -4831,20 +4921,21 @@
       <c r="I86" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="J86" s="4">
+      <c r="J86" s="7"/>
+      <c r="K86" s="4">
         <v>172.7</v>
       </c>
-      <c r="K86" s="4">
+      <c r="L86" s="4">
         <v>14.8</v>
       </c>
-      <c r="L86" s="4" t="s">
+      <c r="M86" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M86" s="4" t="s">
+      <c r="N86" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="8" customFormat="1">
+    <row r="87" spans="1:14" s="8" customFormat="1">
       <c r="A87" s="4" t="s">
         <v>0</v>
       </c>
@@ -4872,20 +4963,21 @@
       <c r="I87" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="J87" s="4">
+      <c r="J87" s="7"/>
+      <c r="K87" s="4">
         <v>216.9</v>
       </c>
-      <c r="K87" s="4">
+      <c r="L87" s="4">
         <v>18.7</v>
       </c>
-      <c r="L87" s="4" t="s">
+      <c r="M87" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M87" s="4" t="s">
+      <c r="N87" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="8" customFormat="1">
+    <row r="88" spans="1:14" s="8" customFormat="1">
       <c r="A88" s="4" t="s">
         <v>0</v>
       </c>
@@ -4913,20 +5005,21 @@
       <c r="I88" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="J88" s="4">
+      <c r="J88" s="7"/>
+      <c r="K88" s="4">
         <v>240.3</v>
       </c>
-      <c r="K88" s="4">
+      <c r="L88" s="4">
         <v>20.7</v>
       </c>
-      <c r="L88" s="4" t="s">
+      <c r="M88" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M88" s="4" t="s">
+      <c r="N88" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="8" customFormat="1">
+    <row r="89" spans="1:14" s="8" customFormat="1">
       <c r="A89" s="4" t="s">
         <v>0</v>
       </c>
@@ -4954,20 +5047,21 @@
       <c r="I89" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="J89" s="4">
+      <c r="J89" s="7"/>
+      <c r="K89" s="4">
         <v>294.3</v>
       </c>
-      <c r="K89" s="4">
+      <c r="L89" s="4">
         <v>25.5</v>
       </c>
-      <c r="L89" s="4" t="s">
+      <c r="M89" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M89" s="4" t="s">
+      <c r="N89" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="8" customFormat="1">
+    <row r="90" spans="1:14" s="8" customFormat="1">
       <c r="A90" s="4" t="s">
         <v>0</v>
       </c>
@@ -4995,20 +5089,21 @@
       <c r="I90" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="J90" s="4">
+      <c r="J90" s="7"/>
+      <c r="K90" s="4">
         <v>299.7</v>
       </c>
-      <c r="K90" s="4">
+      <c r="L90" s="4">
         <v>25.9</v>
       </c>
-      <c r="L90" s="4" t="s">
+      <c r="M90" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M90" s="4" t="s">
+      <c r="N90" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="8" customFormat="1">
+    <row r="91" spans="1:14" s="8" customFormat="1">
       <c r="A91" s="4" t="s">
         <v>0</v>
       </c>
@@ -5036,20 +5131,21 @@
       <c r="I91" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="J91" s="4">
+      <c r="J91" s="7"/>
+      <c r="K91" s="4">
         <v>286.3</v>
       </c>
-      <c r="K91" s="4">
+      <c r="L91" s="4">
         <v>24.7</v>
       </c>
-      <c r="L91" s="4" t="s">
+      <c r="M91" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M91" s="4" t="s">
+      <c r="N91" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="8" customFormat="1">
+    <row r="92" spans="1:14" s="8" customFormat="1">
       <c r="A92" s="4" t="s">
         <v>0</v>
       </c>
@@ -5077,20 +5173,21 @@
       <c r="I92" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="J92" s="4">
+      <c r="J92" s="7"/>
+      <c r="K92" s="4">
         <v>176</v>
       </c>
-      <c r="K92" s="4">
+      <c r="L92" s="4">
         <v>15.3</v>
       </c>
-      <c r="L92" s="4" t="s">
+      <c r="M92" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M92" s="4" t="s">
+      <c r="N92" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="8" customFormat="1">
+    <row r="93" spans="1:14" s="8" customFormat="1">
       <c r="A93" s="4" t="s">
         <v>0</v>
       </c>
@@ -5118,20 +5215,21 @@
       <c r="I93" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="J93" s="4">
+      <c r="J93" s="7"/>
+      <c r="K93" s="4">
         <v>187.2</v>
       </c>
-      <c r="K93" s="4">
+      <c r="L93" s="4">
         <v>16.3</v>
       </c>
-      <c r="L93" s="4" t="s">
+      <c r="M93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M93" s="4" t="s">
+      <c r="N93" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="8" customFormat="1">
+    <row r="94" spans="1:14" s="8" customFormat="1">
       <c r="A94" s="4" t="s">
         <v>0</v>
       </c>
@@ -5159,20 +5257,21 @@
       <c r="I94" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="J94" s="4">
+      <c r="J94" s="7"/>
+      <c r="K94" s="4">
         <v>232.5</v>
       </c>
-      <c r="K94" s="4">
+      <c r="L94" s="4">
         <v>20.100000000000001</v>
       </c>
-      <c r="L94" s="4" t="s">
+      <c r="M94" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M94" s="4" t="s">
+      <c r="N94" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="8" customFormat="1">
+    <row r="95" spans="1:14" s="8" customFormat="1">
       <c r="A95" s="4" t="s">
         <v>0</v>
       </c>
@@ -5200,20 +5299,21 @@
       <c r="I95" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="J95" s="4">
+      <c r="J95" s="7"/>
+      <c r="K95" s="4">
         <v>262.3</v>
       </c>
-      <c r="K95" s="4">
+      <c r="L95" s="4">
         <v>22.7</v>
       </c>
-      <c r="L95" s="4" t="s">
+      <c r="M95" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M95" s="4" t="s">
+      <c r="N95" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="8" customFormat="1">
+    <row r="96" spans="1:14" s="8" customFormat="1">
       <c r="A96" s="4" t="s">
         <v>0</v>
       </c>
@@ -5241,20 +5341,21 @@
       <c r="I96" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J96" s="4">
+      <c r="J96" s="7"/>
+      <c r="K96" s="4">
         <v>300.5</v>
       </c>
-      <c r="K96" s="4">
+      <c r="L96" s="4">
         <v>25.9</v>
       </c>
-      <c r="L96" s="4" t="s">
+      <c r="M96" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M96" s="4" t="s">
+      <c r="N96" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="8" customFormat="1">
+    <row r="97" spans="1:14" s="8" customFormat="1">
       <c r="A97" s="4" t="s">
         <v>0</v>
       </c>
@@ -5282,20 +5383,21 @@
       <c r="I97" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="J97" s="4">
+      <c r="J97" s="7"/>
+      <c r="K97" s="4">
         <v>313.39999999999998</v>
       </c>
-      <c r="K97" s="4">
+      <c r="L97" s="4">
         <v>27</v>
       </c>
-      <c r="L97" s="4" t="s">
+      <c r="M97" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M97" s="4" t="s">
+      <c r="N97" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="8" customFormat="1">
+    <row r="98" spans="1:14" s="8" customFormat="1">
       <c r="A98" s="4" t="s">
         <v>0</v>
       </c>
@@ -5323,20 +5425,21 @@
       <c r="I98" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="J98" s="4">
+      <c r="J98" s="7"/>
+      <c r="K98" s="4">
         <v>313.3</v>
       </c>
-      <c r="K98" s="4">
+      <c r="L98" s="4">
         <v>27.2</v>
       </c>
-      <c r="L98" s="4" t="s">
+      <c r="M98" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M98" s="4" t="s">
+      <c r="N98" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="8" customFormat="1">
+    <row r="99" spans="1:14" s="8" customFormat="1">
       <c r="A99" s="4" t="s">
         <v>0</v>
       </c>
@@ -5364,20 +5467,21 @@
       <c r="I99" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="J99" s="4">
+      <c r="J99" s="7"/>
+      <c r="K99" s="4">
         <v>303.3</v>
       </c>
-      <c r="K99" s="4">
+      <c r="L99" s="4">
         <v>26.3</v>
       </c>
-      <c r="L99" s="4" t="s">
+      <c r="M99" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M99" s="4" t="s">
+      <c r="N99" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="8" customFormat="1">
+    <row r="100" spans="1:14" s="8" customFormat="1">
       <c r="A100" s="4" t="s">
         <v>0</v>
       </c>
@@ -5405,20 +5509,21 @@
       <c r="I100" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="J100" s="4">
+      <c r="J100" s="7"/>
+      <c r="K100" s="4">
         <v>239.4</v>
       </c>
-      <c r="K100" s="4">
+      <c r="L100" s="4">
         <v>20.5</v>
       </c>
-      <c r="L100" s="4" t="s">
+      <c r="M100" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M100" s="4" t="s">
+      <c r="N100" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="11" customFormat="1">
+    <row r="101" spans="1:14" s="11" customFormat="1">
       <c r="A101" s="9" t="s">
         <v>0</v>
       </c>
@@ -5446,20 +5551,21 @@
       <c r="I101" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="J101" s="9">
+      <c r="J101" s="9"/>
+      <c r="K101" s="9">
         <v>94.5</v>
       </c>
-      <c r="K101" s="9">
+      <c r="L101" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L101" s="9" t="s">
+      <c r="M101" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M101" s="9" t="s">
+      <c r="N101" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="8" customFormat="1">
+    <row r="102" spans="1:14" s="8" customFormat="1">
       <c r="A102" s="4" t="s">
         <v>0</v>
       </c>
@@ -5487,20 +5593,21 @@
       <c r="I102" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="J102" s="4">
+      <c r="J102" s="7"/>
+      <c r="K102" s="4">
         <v>207.6</v>
       </c>
-      <c r="K102" s="4">
+      <c r="L102" s="4">
         <v>18</v>
       </c>
-      <c r="L102" s="4" t="s">
+      <c r="M102" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M102" s="4" t="s">
+      <c r="N102" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="8" customFormat="1">
+    <row r="103" spans="1:14" s="8" customFormat="1">
       <c r="A103" s="4" t="s">
         <v>0</v>
       </c>
@@ -5528,20 +5635,21 @@
       <c r="I103" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="J103" s="4">
+      <c r="J103" s="7"/>
+      <c r="K103" s="4">
         <v>293.5</v>
       </c>
-      <c r="K103" s="4">
+      <c r="L103" s="4">
         <v>25.4</v>
       </c>
-      <c r="L103" s="4" t="s">
+      <c r="M103" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M103" s="4" t="s">
+      <c r="N103" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="8" customFormat="1">
+    <row r="104" spans="1:14" s="8" customFormat="1">
       <c r="A104" s="4" t="s">
         <v>0</v>
       </c>
@@ -5569,20 +5677,21 @@
       <c r="I104" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="J104" s="4">
+      <c r="J104" s="7"/>
+      <c r="K104" s="4">
         <v>215</v>
       </c>
-      <c r="K104" s="4">
+      <c r="L104" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="L104" s="4" t="s">
+      <c r="M104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M104" s="4" t="s">
+      <c r="N104" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="8" customFormat="1">
+    <row r="105" spans="1:14" s="8" customFormat="1">
       <c r="A105" s="4" t="s">
         <v>0</v>
       </c>
@@ -5610,20 +5719,21 @@
       <c r="I105" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="J105" s="4">
+      <c r="J105" s="7"/>
+      <c r="K105" s="4">
         <v>271.8</v>
       </c>
-      <c r="K105" s="4">
+      <c r="L105" s="4">
         <v>23.4</v>
       </c>
-      <c r="L105" s="4" t="s">
+      <c r="M105" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M105" s="4" t="s">
+      <c r="N105" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="8" customFormat="1">
+    <row r="106" spans="1:14" s="8" customFormat="1">
       <c r="A106" s="4" t="s">
         <v>0</v>
       </c>
@@ -5651,20 +5761,21 @@
       <c r="I106" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="J106" s="4">
+      <c r="J106" s="7"/>
+      <c r="K106" s="4">
         <v>309.89999999999998</v>
       </c>
-      <c r="K106" s="4">
+      <c r="L106" s="4">
         <v>26.8</v>
       </c>
-      <c r="L106" s="4" t="s">
+      <c r="M106" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M106" s="4" t="s">
+      <c r="N106" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="8" customFormat="1">
+    <row r="107" spans="1:14" s="8" customFormat="1">
       <c r="A107" s="4" t="s">
         <v>0</v>
       </c>
@@ -5692,20 +5803,21 @@
       <c r="I107" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="J107" s="4">
+      <c r="J107" s="7"/>
+      <c r="K107" s="4">
         <v>285</v>
       </c>
-      <c r="K107" s="4">
+      <c r="L107" s="4">
         <v>24.8</v>
       </c>
-      <c r="L107" s="4" t="s">
+      <c r="M107" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M107" s="4" t="s">
+      <c r="N107" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="8" customFormat="1">
+    <row r="108" spans="1:14" s="8" customFormat="1">
       <c r="A108" s="4" t="s">
         <v>0</v>
       </c>
@@ -5733,20 +5845,21 @@
       <c r="I108" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="J108" s="4">
+      <c r="J108" s="7"/>
+      <c r="K108" s="4">
         <v>190.5</v>
       </c>
-      <c r="K108" s="4">
+      <c r="L108" s="4">
         <v>16.5</v>
       </c>
-      <c r="L108" s="4" t="s">
+      <c r="M108" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M108" s="4" t="s">
+      <c r="N108" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="8" customFormat="1">
+    <row r="109" spans="1:14" s="8" customFormat="1">
       <c r="A109" s="4" t="s">
         <v>0</v>
       </c>
@@ -5774,20 +5887,21 @@
       <c r="I109" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="J109" s="4">
+      <c r="J109" s="7"/>
+      <c r="K109" s="4">
         <v>305.5</v>
       </c>
-      <c r="K109" s="4">
+      <c r="L109" s="4">
         <v>26.6</v>
       </c>
-      <c r="L109" s="4" t="s">
+      <c r="M109" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M109" s="4" t="s">
+      <c r="N109" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:13" s="8" customFormat="1">
+    <row r="110" spans="1:14" s="8" customFormat="1">
       <c r="A110" s="4" t="s">
         <v>0</v>
       </c>
@@ -5815,20 +5929,21 @@
       <c r="I110" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="J110" s="4">
+      <c r="J110" s="7"/>
+      <c r="K110" s="4">
         <v>315.5</v>
       </c>
-      <c r="K110" s="4">
+      <c r="L110" s="4">
         <v>27.2</v>
       </c>
-      <c r="L110" s="4" t="s">
+      <c r="M110" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M110" s="4" t="s">
+      <c r="N110" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="8" customFormat="1">
+    <row r="111" spans="1:14" s="8" customFormat="1">
       <c r="A111" s="4" t="s">
         <v>0</v>
       </c>
@@ -5856,20 +5971,21 @@
       <c r="I111" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="J111" s="4">
+      <c r="J111" s="7"/>
+      <c r="K111" s="4">
         <v>320.60000000000002</v>
       </c>
-      <c r="K111" s="4">
+      <c r="L111" s="4">
         <v>27.7</v>
       </c>
-      <c r="L111" s="4" t="s">
+      <c r="M111" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M111" s="4" t="s">
+      <c r="N111" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:13" s="8" customFormat="1">
+    <row r="112" spans="1:14" s="8" customFormat="1">
       <c r="A112" s="4" t="s">
         <v>0</v>
       </c>
@@ -5897,20 +6013,21 @@
       <c r="I112" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="J112" s="4">
+      <c r="J112" s="7"/>
+      <c r="K112" s="4">
         <v>321.7</v>
       </c>
-      <c r="K112" s="4">
+      <c r="L112" s="4">
         <v>27.8</v>
       </c>
-      <c r="L112" s="4" t="s">
+      <c r="M112" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M112" s="4" t="s">
+      <c r="N112" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:13" s="8" customFormat="1">
+    <row r="113" spans="1:14" s="8" customFormat="1">
       <c r="A113" s="4" t="s">
         <v>0</v>
       </c>
@@ -5938,20 +6055,21 @@
       <c r="I113" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="J113" s="4">
+      <c r="J113" s="7"/>
+      <c r="K113" s="4">
         <v>321.5</v>
       </c>
-      <c r="K113" s="4">
+      <c r="L113" s="4">
         <v>27.7</v>
       </c>
-      <c r="L113" s="4" t="s">
+      <c r="M113" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M113" s="4" t="s">
+      <c r="N113" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="8" customFormat="1">
+    <row r="114" spans="1:14" s="8" customFormat="1">
       <c r="A114" s="4" t="s">
         <v>0</v>
       </c>
@@ -5979,20 +6097,21 @@
       <c r="I114" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="J114" s="4">
+      <c r="J114" s="7"/>
+      <c r="K114" s="4">
         <v>289.3</v>
       </c>
-      <c r="K114" s="4">
+      <c r="L114" s="4">
         <v>24.9</v>
       </c>
-      <c r="L114" s="4" t="s">
+      <c r="M114" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M114" s="4" t="s">
+      <c r="N114" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="8" customFormat="1">
+    <row r="115" spans="1:14" s="8" customFormat="1">
       <c r="A115" s="4" t="s">
         <v>0</v>
       </c>
@@ -6020,20 +6139,21 @@
       <c r="I115" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="J115" s="4">
+      <c r="J115" s="7"/>
+      <c r="K115" s="4">
         <v>314.89999999999998</v>
       </c>
-      <c r="K115" s="4">
+      <c r="L115" s="4">
         <v>27.1</v>
       </c>
-      <c r="L115" s="4" t="s">
+      <c r="M115" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M115" s="4" t="s">
+      <c r="N115" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:13" s="8" customFormat="1">
+    <row r="116" spans="1:14" s="8" customFormat="1">
       <c r="A116" s="4" t="s">
         <v>0</v>
       </c>
@@ -6061,20 +6181,21 @@
       <c r="I116" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J116" s="4">
+      <c r="J116" s="7"/>
+      <c r="K116" s="4">
         <v>326.7</v>
       </c>
-      <c r="K116" s="4">
+      <c r="L116" s="4">
         <v>28.2</v>
       </c>
-      <c r="L116" s="4" t="s">
+      <c r="M116" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M116" s="4" t="s">
+      <c r="N116" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="8" customFormat="1">
+    <row r="117" spans="1:14" s="8" customFormat="1">
       <c r="A117" s="4" t="s">
         <v>0</v>
       </c>
@@ -6102,20 +6223,21 @@
       <c r="I117" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="J117" s="4">
+      <c r="J117" s="7"/>
+      <c r="K117" s="4">
         <v>326.60000000000002</v>
       </c>
-      <c r="K117" s="4">
+      <c r="L117" s="4">
         <v>28.3</v>
       </c>
-      <c r="L117" s="4" t="s">
+      <c r="M117" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M117" s="4" t="s">
+      <c r="N117" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="8" customFormat="1">
+    <row r="118" spans="1:14" s="8" customFormat="1">
       <c r="A118" s="4" t="s">
         <v>0</v>
       </c>
@@ -6143,20 +6265,21 @@
       <c r="I118" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J118" s="4">
+      <c r="J118" s="7"/>
+      <c r="K118" s="4">
         <v>324.7</v>
       </c>
-      <c r="K118" s="4">
+      <c r="L118" s="4">
         <v>28.1</v>
       </c>
-      <c r="L118" s="4" t="s">
+      <c r="M118" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M118" s="4" t="s">
+      <c r="N118" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:13" s="8" customFormat="1">
+    <row r="119" spans="1:14" s="8" customFormat="1">
       <c r="A119" s="4" t="s">
         <v>0</v>
       </c>
@@ -6184,20 +6307,21 @@
       <c r="I119" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="J119" s="4">
+      <c r="J119" s="7"/>
+      <c r="K119" s="4">
         <v>322.2</v>
       </c>
-      <c r="K119" s="4">
+      <c r="L119" s="4">
         <v>27.9</v>
       </c>
-      <c r="L119" s="4" t="s">
+      <c r="M119" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M119" s="4" t="s">
+      <c r="N119" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="8" customFormat="1">
+    <row r="120" spans="1:14" s="8" customFormat="1">
       <c r="A120" s="4" t="s">
         <v>0</v>
       </c>
@@ -6225,20 +6349,21 @@
       <c r="I120" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="J120" s="4">
+      <c r="J120" s="7"/>
+      <c r="K120" s="4">
         <v>319.8</v>
       </c>
-      <c r="K120" s="4">
+      <c r="L120" s="4">
         <v>27.5</v>
       </c>
-      <c r="L120" s="4" t="s">
+      <c r="M120" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M120" s="4" t="s">
+      <c r="N120" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:13" s="8" customFormat="1">
+    <row r="121" spans="1:14" s="8" customFormat="1">
       <c r="A121" s="4" t="s">
         <v>0</v>
       </c>
@@ -6266,20 +6391,21 @@
       <c r="I121" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="J121" s="4">
+      <c r="J121" s="7"/>
+      <c r="K121" s="4">
         <v>321.2</v>
       </c>
-      <c r="K121" s="4">
+      <c r="L121" s="4">
         <v>27.7</v>
       </c>
-      <c r="L121" s="4" t="s">
+      <c r="M121" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M121" s="4" t="s">
+      <c r="N121" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="8" customFormat="1">
+    <row r="122" spans="1:14" s="8" customFormat="1">
       <c r="A122" s="4" t="s">
         <v>0</v>
       </c>
@@ -6307,28 +6433,31 @@
       <c r="I122" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="J122" s="4">
+      <c r="J122" s="7"/>
+      <c r="K122" s="4">
         <v>313.3</v>
       </c>
-      <c r="K122" s="4">
+      <c r="L122" s="4">
         <v>27</v>
       </c>
-      <c r="L122" s="4" t="s">
+      <c r="M122" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M122" s="4" t="s">
+      <c r="N122" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:13" s="8" customFormat="1">
+    <row r="123" spans="1:14" s="8" customFormat="1">
       <c r="A123" s="12"/>
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
-    </row>
-    <row r="124" spans="1:13" s="8" customFormat="1">
+      <c r="J123" s="12"/>
+    </row>
+    <row r="124" spans="1:14" s="8" customFormat="1">
       <c r="A124" s="12"/>
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01 - DATASET/01- AUH Weather 2024 [CLEANED].xlsx
+++ b/01 - DATASET/01- AUH Weather 2024 [CLEANED].xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 ARTIFICIAL INTELLIGENCE\SA2-blomikii\01 - DATASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE71AD6-97FB-445B-A505-B2D73E089BBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D3384E-CE02-4456-9102-B7D0D1F45C70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" xr2:uid="{22593D64-4D70-4623-BFD6-FA2482228C99}"/>
   </bookViews>
